--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.862277731936</v>
+        <v>112.466131</v>
       </c>
       <c r="H2">
-        <v>107.862277731936</v>
+        <v>337.3983929999999</v>
       </c>
       <c r="I2">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="J2">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.19458905698576</v>
+        <v>4.220261333333333</v>
       </c>
       <c r="N2">
-        <v>1.19458905698576</v>
+        <v>12.660784</v>
       </c>
       <c r="O2">
-        <v>0.6392567238992268</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="P2">
-        <v>0.6392567238992268</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="Q2">
-        <v>128.8510966401296</v>
+        <v>474.6364639689012</v>
       </c>
       <c r="R2">
-        <v>128.8510966401296</v>
+        <v>4271.728175720111</v>
       </c>
       <c r="S2">
-        <v>0.1983468825806205</v>
+        <v>0.1987064957302093</v>
       </c>
       <c r="T2">
-        <v>0.1983468825806205</v>
+        <v>0.1987064957302093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.862277731936</v>
+        <v>112.466131</v>
       </c>
       <c r="H3">
-        <v>107.862277731936</v>
+        <v>337.3983929999999</v>
       </c>
       <c r="I3">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="J3">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.674126612830294</v>
+        <v>1.296447666666667</v>
       </c>
       <c r="N3">
-        <v>0.674126612830294</v>
+        <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.3607432761007731</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="P3">
-        <v>0.3607432761007731</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="Q3">
-        <v>72.71283193959046</v>
+        <v>145.8064531139776</v>
       </c>
       <c r="R3">
-        <v>72.71283193959046</v>
+        <v>1312.258078025799</v>
       </c>
       <c r="S3">
-        <v>0.1119304679191579</v>
+        <v>0.06104185319193655</v>
       </c>
       <c r="T3">
-        <v>0.1119304679191579</v>
+        <v>0.06104185319193655</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.1096900005867</v>
+        <v>112.466131</v>
       </c>
       <c r="H4">
-        <v>82.1096900005867</v>
+        <v>337.3983929999999</v>
       </c>
       <c r="I4">
-        <v>0.2361972841613468</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="J4">
-        <v>0.2361972841613468</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.19458905698576</v>
+        <v>0.745494</v>
       </c>
       <c r="N4">
-        <v>1.19458905698576</v>
+        <v>2.236482</v>
       </c>
       <c r="O4">
-        <v>0.6392567238992268</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="P4">
-        <v>0.6392567238992268</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="Q4">
-        <v>98.08733714719395</v>
+        <v>83.84282586371398</v>
       </c>
       <c r="R4">
-        <v>98.08733714719395</v>
+        <v>754.5854327734259</v>
       </c>
       <c r="S4">
-        <v>0.1509907020668773</v>
+        <v>0.03510078846489205</v>
       </c>
       <c r="T4">
-        <v>0.1509907020668773</v>
+        <v>0.03510078846489205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.1096900005867</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H5">
-        <v>82.1096900005867</v>
+        <v>246.782684</v>
       </c>
       <c r="I5">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="J5">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.674126612830294</v>
+        <v>4.220261333333333</v>
       </c>
       <c r="N5">
-        <v>0.674126612830294</v>
+        <v>12.660784</v>
       </c>
       <c r="O5">
-        <v>0.3607432761007731</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="P5">
-        <v>0.3607432761007731</v>
+        <v>0.6739259863235564</v>
       </c>
       <c r="Q5">
-        <v>55.35232720064096</v>
+        <v>347.1624730071395</v>
       </c>
       <c r="R5">
-        <v>55.35232720064096</v>
+        <v>3124.462257064256</v>
       </c>
       <c r="S5">
-        <v>0.08520658209446949</v>
+        <v>0.1453395255043067</v>
       </c>
       <c r="T5">
-        <v>0.08520658209446949</v>
+        <v>0.1453395255043067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.659844767478</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H6">
-        <v>157.659844767478</v>
+        <v>246.782684</v>
       </c>
       <c r="I6">
-        <v>0.4535253653388747</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="J6">
-        <v>0.4535253653388747</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.19458905698576</v>
+        <v>1.296447666666667</v>
       </c>
       <c r="N6">
-        <v>1.19458905698576</v>
+        <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.6392567238992268</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="P6">
-        <v>0.6392567238992268</v>
+        <v>0.2070274097896007</v>
       </c>
       <c r="Q6">
-        <v>188.3387252853029</v>
+        <v>106.6469449485124</v>
       </c>
       <c r="R6">
-        <v>188.3387252853029</v>
+        <v>959.822504536612</v>
       </c>
       <c r="S6">
-        <v>0.289919139251729</v>
+        <v>0.04464773004132261</v>
       </c>
       <c r="T6">
-        <v>0.289919139251729</v>
+        <v>0.04464773004132261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>157.659844767478</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H7">
-        <v>157.659844767478</v>
+        <v>246.782684</v>
       </c>
       <c r="I7">
-        <v>0.4535253653388747</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="J7">
-        <v>0.4535253653388747</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.674126612830294</v>
+        <v>0.745494</v>
       </c>
       <c r="N7">
-        <v>0.674126612830294</v>
+        <v>2.236482</v>
       </c>
       <c r="O7">
-        <v>0.3607432761007731</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="P7">
-        <v>0.3607432761007731</v>
+        <v>0.119046603886843</v>
       </c>
       <c r="Q7">
-        <v>106.2826971324499</v>
+        <v>61.32500340863199</v>
       </c>
       <c r="R7">
-        <v>106.2826971324499</v>
+        <v>551.925030677688</v>
       </c>
       <c r="S7">
-        <v>0.1636062260871457</v>
+        <v>0.02567370493635487</v>
       </c>
       <c r="T7">
-        <v>0.1636062260871457</v>
+        <v>0.02567370493635487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>186.7091623333333</v>
+      </c>
+      <c r="H8">
+        <v>560.127487</v>
+      </c>
+      <c r="I8">
+        <v>0.489489902130978</v>
+      </c>
+      <c r="J8">
+        <v>0.489489902130978</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>4.220261333333333</v>
+      </c>
+      <c r="N8">
+        <v>12.660784</v>
+      </c>
+      <c r="O8">
+        <v>0.6739259863235564</v>
+      </c>
+      <c r="P8">
+        <v>0.6739259863235564</v>
+      </c>
+      <c r="Q8">
+        <v>787.961458374423</v>
+      </c>
+      <c r="R8">
+        <v>7091.653125369808</v>
+      </c>
+      <c r="S8">
+        <v>0.3298799650890404</v>
+      </c>
+      <c r="T8">
+        <v>0.3298799650890404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>186.7091623333333</v>
+      </c>
+      <c r="H9">
+        <v>560.127487</v>
+      </c>
+      <c r="I9">
+        <v>0.489489902130978</v>
+      </c>
+      <c r="J9">
+        <v>0.489489902130978</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.296447666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.889343</v>
+      </c>
+      <c r="O9">
+        <v>0.2070274097896007</v>
+      </c>
+      <c r="P9">
+        <v>0.2070274097896007</v>
+      </c>
+      <c r="Q9">
+        <v>242.0586578523379</v>
+      </c>
+      <c r="R9">
+        <v>2178.527920671041</v>
+      </c>
+      <c r="S9">
+        <v>0.1013378265563415</v>
+      </c>
+      <c r="T9">
+        <v>0.1013378265563415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>186.7091623333333</v>
+      </c>
+      <c r="H10">
+        <v>560.127487</v>
+      </c>
+      <c r="I10">
+        <v>0.489489902130978</v>
+      </c>
+      <c r="J10">
+        <v>0.489489902130978</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.745494</v>
+      </c>
+      <c r="N10">
+        <v>2.236482</v>
+      </c>
+      <c r="O10">
+        <v>0.119046603886843</v>
+      </c>
+      <c r="P10">
+        <v>0.119046603886843</v>
+      </c>
+      <c r="Q10">
+        <v>139.190560264526</v>
+      </c>
+      <c r="R10">
+        <v>1252.715042380734</v>
+      </c>
+      <c r="S10">
+        <v>0.05827211048559611</v>
+      </c>
+      <c r="T10">
+        <v>0.05827211048559611</v>
       </c>
     </row>
   </sheetData>
